--- a/output_validation/01_pin_percentage.xlsx
+++ b/output_validation/01_pin_percentage.xlsx
@@ -480,13 +480,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.7106540107189163</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="D2">
-        <v>0.1940314058866316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="E2">
-        <v>0.09531458339445194</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -500,16 +500,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>0.3290499252879423</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="D3">
-        <v>0.6036718536496696</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="E3">
-        <v>0.01970547031554419</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="F3">
-        <v>0.04757275074684381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,16 +520,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.451490579415013</v>
+        <v>0.5505005570185084</v>
       </c>
       <c r="D4">
-        <v>0.4698528086710667</v>
+        <v>0.4494994429814916</v>
       </c>
       <c r="E4">
-        <v>0.03905124774921262</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.03960536416470775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,16 +540,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.2418234127364369</v>
+        <v>0.2362255938995011</v>
       </c>
       <c r="D5">
-        <v>0.7294574180822524</v>
+        <v>0.7237605554225978</v>
       </c>
       <c r="E5">
-        <v>0.02208829116628782</v>
+        <v>0.04001385067790107</v>
       </c>
       <c r="F5">
-        <v>0.006630878015022912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -560,16 +560,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.03115927001577109</v>
+        <v>0.06043364741733242</v>
       </c>
       <c r="D6">
-        <v>0.8586113691592343</v>
+        <v>0.8583608304788509</v>
       </c>
       <c r="E6">
-        <v>0.0225249404565677</v>
+        <v>0.08120552210381662</v>
       </c>
       <c r="F6">
-        <v>0.08770442036842702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -580,16 +580,16 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.3453075914522154</v>
+        <v>0.165981388455387</v>
       </c>
       <c r="D7">
-        <v>0.5658377226259738</v>
+        <v>0.6465252877086792</v>
       </c>
       <c r="E7">
-        <v>0.0592864017109811</v>
+        <v>0.1874933238359339</v>
       </c>
       <c r="F7">
-        <v>0.02956828421082979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -600,13 +600,13 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.6672571779664611</v>
+        <v>0.8382017667306252</v>
       </c>
       <c r="D8">
-        <v>0.259974004174096</v>
+        <v>0.1230474506907969</v>
       </c>
       <c r="E8">
-        <v>0.07276881785944292</v>
+        <v>0.03875078257857791</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.430018342774032</v>
+        <v>0.3348719340637654</v>
       </c>
       <c r="D9">
-        <v>0.4386203619332985</v>
+        <v>0.5078237190080316</v>
       </c>
       <c r="E9">
-        <v>0.07445704614588498</v>
+        <v>0.1573043469282031</v>
       </c>
       <c r="F9">
-        <v>0.05690424914678459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -640,16 +640,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.503759477991108</v>
+        <v>0.5046915229780159</v>
       </c>
       <c r="D10">
-        <v>0.3269055964410499</v>
+        <v>0.3583226586368378</v>
       </c>
       <c r="E10">
-        <v>0.06928128169712645</v>
+        <v>0.1369858183851464</v>
       </c>
       <c r="F10">
-        <v>0.1000536438707157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -660,16 +660,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.3042856291533364</v>
+        <v>0.3709017435176196</v>
       </c>
       <c r="D11">
-        <v>0.53127577367946</v>
+        <v>0.4558409666193095</v>
       </c>
       <c r="E11">
-        <v>0.1465290131006264</v>
+        <v>0.1422492925461661</v>
       </c>
       <c r="F11">
-        <v>0.01790958406657735</v>
+        <v>0.03100799731690495</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -680,13 +680,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.5351307850709578</v>
+        <v>0.4017572619326708</v>
       </c>
       <c r="D12">
-        <v>0.427848515348812</v>
+        <v>0.5982427380673293</v>
       </c>
       <c r="E12">
-        <v>0.03702069958023029</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.1606215520728562</v>
+        <v>0.07542672232317281</v>
       </c>
       <c r="D13">
-        <v>0.8104340121734962</v>
+        <v>0.8690003027501599</v>
       </c>
       <c r="E13">
-        <v>0.02894443575364755</v>
+        <v>0.05557297492666727</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -753,16 +753,16 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>0.3202038642640018</v>
+        <v>0.357012769940906</v>
       </c>
       <c r="D2">
-        <v>0.6089976789828835</v>
+        <v>0.5302458965458244</v>
       </c>
       <c r="E2">
-        <v>0.06801939348145869</v>
+        <v>0.1127413335132695</v>
       </c>
       <c r="F2">
-        <v>0.002779063271655956</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -806,16 +806,16 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>0.7355010475254173</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="D2">
-        <v>0.2347291702405611</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02317121176486182</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="F2">
-        <v>0.006598570469159679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -826,13 +826,13 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>0.2881114296960966</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="D3">
-        <v>0.6737953618662589</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="E3">
-        <v>0.03809320843764467</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -846,16 +846,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>0.542864226316311</v>
+        <v>0.6703202566789164</v>
       </c>
       <c r="D4">
-        <v>0.3976487884179679</v>
+        <v>0.3296797433210837</v>
       </c>
       <c r="E4">
-        <v>0.05502289074026563</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.004464094525455411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -866,16 +866,16 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>0.2957402131124322</v>
+        <v>0.125776487776275</v>
       </c>
       <c r="D5">
-        <v>0.6578798859844721</v>
+        <v>0.7550424483963755</v>
       </c>
       <c r="E5">
-        <v>0.03533270074859607</v>
+        <v>0.03435466991323431</v>
       </c>
       <c r="F5">
-        <v>0.01104720015449962</v>
+        <v>0.08482639391411527</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -886,16 +886,16 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0.2168995155835068</v>
+        <v>0.1225075068689798</v>
       </c>
       <c r="D6">
-        <v>0.7305780530002808</v>
+        <v>0.8774924931310202</v>
       </c>
       <c r="E6">
-        <v>0.04763420632265963</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.004888225093552757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -906,13 +906,13 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.7255237755561456</v>
+        <v>0.7256068481815973</v>
       </c>
       <c r="D7">
-        <v>0.2370695257967525</v>
+        <v>0.2146109304523383</v>
       </c>
       <c r="E7">
-        <v>0.03740669864710201</v>
+        <v>0.05978222136606444</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -926,13 +926,13 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.7749837497270196</v>
+        <v>0.7924190383905769</v>
       </c>
       <c r="D8">
-        <v>0.209809235113927</v>
+        <v>0.1591963593292097</v>
       </c>
       <c r="E8">
-        <v>0.0152070151590535</v>
+        <v>0.04838460228021334</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>0.7567306197548094</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.1675719832943586</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07569739695083223</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -966,13 +966,13 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.7815722567773472</v>
+        <v>0.6777018473264718</v>
       </c>
       <c r="D10">
-        <v>0.2048177817451928</v>
+        <v>0.3222981526735283</v>
       </c>
       <c r="E10">
-        <v>0.0136099614774599</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>0.7738342948998559</v>
+        <v>0.8620064665872667</v>
       </c>
       <c r="D11">
-        <v>0.1835332944656455</v>
+        <v>0.1379935334127334</v>
       </c>
       <c r="E11">
-        <v>0.03543814744568882</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.007194263188809723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1006,16 +1006,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>0.6759834838293406</v>
+        <v>0.7715321758342893</v>
       </c>
       <c r="D12">
-        <v>0.1561867307546227</v>
+        <v>0.1457899511717343</v>
       </c>
       <c r="E12">
-        <v>0.08718604184052609</v>
+        <v>0.08267787299397636</v>
       </c>
       <c r="F12">
-        <v>0.08064374357551064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1026,16 +1026,16 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0.4619138320502864</v>
+        <v>0.2976141001389314</v>
       </c>
       <c r="D13">
-        <v>0.4818668178334236</v>
+        <v>0.6202356802759943</v>
       </c>
       <c r="E13">
-        <v>0.05227372759553111</v>
+        <v>0.03738545073187088</v>
       </c>
       <c r="F13">
-        <v>0.003945622520758929</v>
+        <v>0.0447647688532033</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1046,16 +1046,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>0.6577904324554797</v>
+        <v>0.5554147187463672</v>
       </c>
       <c r="D14">
-        <v>0.2601186299610622</v>
+        <v>0.4041575688726384</v>
       </c>
       <c r="E14">
-        <v>0.07780282150174836</v>
+        <v>0.04042771238099447</v>
       </c>
       <c r="F14">
-        <v>0.004288116081709647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1066,13 +1066,13 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>0.8174822877535954</v>
+        <v>0.8804077503986378</v>
       </c>
       <c r="D15">
-        <v>0.1384496847897296</v>
+        <v>0.1195922496013622</v>
       </c>
       <c r="E15">
-        <v>0.04406802745667497</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1086,16 +1086,16 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.5381211257149618</v>
+        <v>0.6968263533264397</v>
       </c>
       <c r="D16">
-        <v>0.3977397650072821</v>
+        <v>0.3031736466735603</v>
       </c>
       <c r="E16">
-        <v>0.05827276357034409</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005866345707411853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1106,13 +1106,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.8548534137558078</v>
+        <v>0.9310762092269746</v>
       </c>
       <c r="D17">
-        <v>0.1094267861545242</v>
+        <v>0.06892379077302539</v>
       </c>
       <c r="E17">
-        <v>0.03571980008966798</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1126,16 +1126,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.9248139239710328</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.03634751776327397</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03292999288485467</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005908565380838581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1146,13 +1146,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.87123704802994</v>
+        <v>0.7262436922562635</v>
       </c>
       <c r="D19">
-        <v>0.08529242819010917</v>
+        <v>0.2737563077437364</v>
       </c>
       <c r="E19">
-        <v>0.04347052377995093</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>0.5993405930558749</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="D2">
-        <v>0.3636580578984003</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="E2">
-        <v>0.03700134904572487</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>0.1643234671516556</v>
+        <v>0.112582448398471</v>
       </c>
       <c r="D3">
-        <v>0.7269411387684906</v>
+        <v>0.8584936775155422</v>
       </c>
       <c r="E3">
-        <v>0.02725234414210714</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.08148304993774656</v>
+        <v>0.02892387408598686</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1239,13 +1239,13 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.4917716660792545</v>
+        <v>0.7742993638732156</v>
       </c>
       <c r="D4">
-        <v>0.5018100436891416</v>
+        <v>0.2257006361267845</v>
       </c>
       <c r="E4">
-        <v>0.006418290231603986</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.4068563174242845</v>
+        <v>0.4535007307593025</v>
       </c>
       <c r="D5">
-        <v>0.5438038650798588</v>
+        <v>0.4693465799928334</v>
       </c>
       <c r="E5">
-        <v>0.04933981749585655</v>
+        <v>0.07715268924786407</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>0.07562392814612101</v>
+        <v>0.05932678460569384</v>
       </c>
       <c r="D6">
-        <v>0.9243760718538789</v>
+        <v>0.9406732153943062</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>0.5497172552716943</v>
+        <v>0.4111018004330445</v>
       </c>
       <c r="D7">
-        <v>0.3892670239583827</v>
+        <v>0.2813629377676347</v>
       </c>
       <c r="E7">
-        <v>0.06101572076992296</v>
+        <v>0.3075352617993207</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1319,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.4732055462978784</v>
+        <v>0.6174902311128901</v>
       </c>
       <c r="D8">
-        <v>0.4835065653399762</v>
+        <v>0.3825097688871097</v>
       </c>
       <c r="E8">
-        <v>0.0432878883621454</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0.2802404301971404</v>
+        <v>0.1101821941067391</v>
       </c>
       <c r="D9">
-        <v>0.5367967648046197</v>
+        <v>0.7635005315760697</v>
       </c>
       <c r="E9">
-        <v>0.1358818889553052</v>
+        <v>0.1263172743171913</v>
       </c>
       <c r="F9">
-        <v>0.04708091604293471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1359,16 +1359,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.5337870602633682</v>
+        <v>0.4768203747314557</v>
       </c>
       <c r="D10">
-        <v>0.3095139273790007</v>
+        <v>0.3771087072538309</v>
       </c>
       <c r="E10">
-        <v>0.1393912851416745</v>
+        <v>0.1460709180147134</v>
       </c>
       <c r="F10">
-        <v>0.0173077272159565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1379,16 +1379,16 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.3287750150324628</v>
+        <v>0.5063949657374379</v>
       </c>
       <c r="D11">
-        <v>0.5839649092903765</v>
+        <v>0.4543501314915568</v>
       </c>
       <c r="E11">
-        <v>0.08115156926686631</v>
+        <v>0.03925490277100506</v>
       </c>
       <c r="F11">
-        <v>0.006108506410294514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1399,13 +1399,13 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>0.5928738109452726</v>
+        <v>0.6101954436206178</v>
       </c>
       <c r="D12">
-        <v>0.2064855341440782</v>
+        <v>0.3898045563793823</v>
       </c>
       <c r="E12">
-        <v>0.2006406549106493</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>0.3666693062507451</v>
+        <v>0.4427434746950732</v>
       </c>
       <c r="D13">
-        <v>0.5168045651851666</v>
+        <v>0.4344131602771897</v>
       </c>
       <c r="E13">
-        <v>0.06306542781760052</v>
+        <v>0.1228433650277372</v>
       </c>
       <c r="F13">
-        <v>0.05346070074648779</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/01_pin_percentage.xlsx
+++ b/output_validation/01_pin_percentage.xlsx
@@ -17,72 +17,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>pop_group</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>idp</t>
   </si>
   <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
     <t>ndsp</t>
   </si>
   <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
   </si>
   <si>
     <t>ocap</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +486,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.6986378325573731</v>
+        <v>0.7203196040432472</v>
       </c>
       <c r="D2">
-        <v>0.1309296905708729</v>
+        <v>0.2796803959567528</v>
       </c>
       <c r="E2">
-        <v>0.1704324768717539</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -497,16 +506,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>0.4671520190982254</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4362981448828352</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.09654983601893945</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -517,16 +526,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0.5505005570185084</v>
+        <v>0.2686371247226884</v>
       </c>
       <c r="D4">
-        <v>0.4494994429814916</v>
+        <v>0.5716063443351023</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1597565309422093</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -537,16 +546,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0.2362255938995011</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7237605554225978</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.04001385067790107</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -557,16 +566,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.06043364741733242</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8583608304788509</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.08120552210381662</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -577,19 +586,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.165981388455387</v>
+        <v>0.5480373400211801</v>
       </c>
       <c r="D7">
-        <v>0.6465252877086792</v>
+        <v>0.18983405326939</v>
       </c>
       <c r="E7">
-        <v>0.1874933238359339</v>
+        <v>0.1812730652342958</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.08085554147513409</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -597,16 +606,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.8382017667306252</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.1230474506907969</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03875078257857791</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -617,16 +626,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0.3348719340637654</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="D9">
-        <v>0.5078237190080316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="E9">
-        <v>0.1573043469282031</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -637,16 +646,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.5046915229780159</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="D10">
-        <v>0.3583226586368378</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="E10">
-        <v>0.1369858183851464</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -657,19 +666,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0.3709017435176196</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="D11">
-        <v>0.4558409666193095</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="E11">
-        <v>0.1422492925461661</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="F11">
-        <v>0.03100799731690495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,16 +686,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>0.4017572619326708</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="D12">
-        <v>0.5982427380673293</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -697,18 +706,38 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="D13">
+        <v>0.4362981448828352</v>
+      </c>
+      <c r="E13">
+        <v>0.09654983601893945</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>0.07542672232317281</v>
-      </c>
-      <c r="D13">
-        <v>0.8690003027501599</v>
-      </c>
-      <c r="E13">
-        <v>0.05557297492666727</v>
-      </c>
-      <c r="F13">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="D14">
+        <v>0.4362981448828352</v>
+      </c>
+      <c r="E14">
+        <v>0.09654983601893945</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
@@ -719,7 +748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,21 +776,121 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>0.357012769940906</v>
+        <v>0.2304031860173474</v>
       </c>
       <c r="D2">
-        <v>0.5302458965458244</v>
+        <v>0.4969275497660341</v>
       </c>
       <c r="E2">
-        <v>0.1127413335132695</v>
+        <v>0.2726692642166184</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.7820095700217157</v>
+      </c>
+      <c r="D4">
+        <v>0.2179904299782842</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.233279274036484</v>
+      </c>
+      <c r="D6">
+        <v>0.7667207259635161</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
@@ -800,19 +929,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>0.9140697865545047</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08593021344549534</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -820,19 +949,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>0.2953518416036127</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6741199099500413</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -840,16 +969,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>0.6703202566789164</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3296797433210837</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -860,39 +989,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>0.125776487776275</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7550424483963755</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.03435466991323431</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.08482639391411527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>0.1225075068689798</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8774924931310202</v>
+        <v>0.6964641341585097</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.3035358658414903</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -900,19 +1029,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>0.7256068481815973</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2146109304523383</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.05978222136606444</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -920,30 +1049,30 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>0.7924190383905769</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1591963593292097</v>
+        <v>0.8613945520003562</v>
       </c>
       <c r="E8">
-        <v>0.04838460228021334</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1386054479996439</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -960,16 +1089,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>0.6777018473264718</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="D10">
-        <v>0.3222981526735283</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -980,16 +1109,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>0.8620064665872667</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1379935334127334</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1000,19 +1129,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>0.7715321758342893</v>
+        <v>0.3864325710142018</v>
       </c>
       <c r="D12">
-        <v>0.1457899511717343</v>
+        <v>0.6135674289857982</v>
       </c>
       <c r="E12">
-        <v>0.08267787299397636</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1020,39 +1149,39 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>0.2976141001389314</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.6202356802759943</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03738545073187088</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0447647688532033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0.5554147187463672</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="D14">
-        <v>0.4041575688726384</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04042771238099447</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1060,19 +1189,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>0.8804077503986378</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="D15">
-        <v>0.1195922496013622</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1080,19 +1209,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>0.6968263533264397</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="D16">
-        <v>0.3031736466735603</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1100,19 +1229,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>0.9310762092269746</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="D17">
-        <v>0.06892379077302539</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1120,19 +1249,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1140,19 +1269,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>0.7262436922562635</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="D19">
-        <v>0.2737563077437364</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1165,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1193,16 +1322,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>0.5697812081955935</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4302187918044066</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1216,19 +1345,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>0.112582448398471</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8584936775155422</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02892387408598686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1236,16 +1365,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>0.7742993638732156</v>
+        <v>0.4958472855812806</v>
       </c>
       <c r="D4">
-        <v>0.2257006361267845</v>
+        <v>0.2016356958596897</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3025170185590298</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1256,16 +1385,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>0.4535007307593025</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4693465799928334</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.07715268924786407</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1273,16 +1402,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>0.05932678460569384</v>
+        <v>0.8405128819480061</v>
       </c>
       <c r="D6">
-        <v>0.9406732153943062</v>
+        <v>0.1594871180519939</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1293,19 +1422,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>0.4111018004330445</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="D7">
-        <v>0.2813629377676347</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="E7">
-        <v>0.3075352617993207</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1313,16 +1442,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>0.6174902311128901</v>
+        <v>0.5648647401941971</v>
       </c>
       <c r="D8">
-        <v>0.3825097688871097</v>
+        <v>0.4351352598058029</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1333,19 +1462,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>0.1101821941067391</v>
+        <v>0.5514290487937468</v>
       </c>
       <c r="D9">
-        <v>0.7635005315760697</v>
+        <v>0.4485709512062533</v>
       </c>
       <c r="E9">
-        <v>0.1263172743171913</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1353,19 +1482,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>0.4768203747314557</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="D10">
-        <v>0.3771087072538309</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="E10">
-        <v>0.1460709180147134</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1373,19 +1502,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>0.5063949657374379</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="D11">
-        <v>0.4543501314915568</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="E11">
-        <v>0.03925490277100506</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1393,16 +1522,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>0.6101954436206178</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="D12">
-        <v>0.3898045563793823</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1413,22 +1542,62 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="D13">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.02892387408598686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>0.4427434746950732</v>
-      </c>
-      <c r="D13">
-        <v>0.4344131602771897</v>
-      </c>
-      <c r="E13">
-        <v>0.1228433650277372</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="D14">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.02892387408598686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="D15">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.02892387408598686</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/01_pin_percentage.xlsx
+++ b/output_validation/01_pin_percentage.xlsx
@@ -17,81 +17,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>pop_group</t>
   </si>
   <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
   </si>
   <si>
     <t>idp</t>
   </si>
   <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
     <t>ndsp</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
@@ -455,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,16 +477,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>0.7203196040432472</v>
+        <v>0.7106540107189163</v>
       </c>
       <c r="D2">
-        <v>0.2796803959567528</v>
+        <v>0.1940314058866316</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.09531458339445194</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -506,19 +497,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3290499252879423</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.6036718536496696</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01970547031554419</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.04757275074684381</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -526,19 +517,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.2686371247226884</v>
+        <v>0.451490579415013</v>
       </c>
       <c r="D4">
-        <v>0.5716063443351023</v>
+        <v>0.4698528086710667</v>
       </c>
       <c r="E4">
-        <v>0.1597565309422093</v>
+        <v>0.03905124774921262</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.03960536416470775</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -546,19 +537,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2418234127364369</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.7294574180822524</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02208829116628782</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.006630878015022912</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -566,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.03115927001577109</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.8586113691592343</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0225249404565677</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.08770442036842702</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -586,19 +577,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.5480373400211801</v>
+        <v>0.3453075914522154</v>
       </c>
       <c r="D7">
-        <v>0.18983405326939</v>
+        <v>0.5658377226259738</v>
       </c>
       <c r="E7">
-        <v>0.1812730652342958</v>
+        <v>0.0592864017109811</v>
       </c>
       <c r="F7">
-        <v>0.08085554147513409</v>
+        <v>0.02956828421082979</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -606,16 +597,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.6672571779664611</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.259974004174096</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.07276881785944292</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -626,19 +617,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.6986378325573731</v>
+        <v>0.430018342774032</v>
       </c>
       <c r="D9">
-        <v>0.1309296905708729</v>
+        <v>0.4386203619332985</v>
       </c>
       <c r="E9">
-        <v>0.1704324768717539</v>
+        <v>0.07445704614588498</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.05690424914678459</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -646,19 +637,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0.6986378325573731</v>
+        <v>0.503759477991108</v>
       </c>
       <c r="D10">
-        <v>0.1309296905708729</v>
+        <v>0.3269055964410499</v>
       </c>
       <c r="E10">
-        <v>0.1704324768717539</v>
+        <v>0.06928128169712645</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1000536438707157</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -666,19 +657,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>0.6986378325573731</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="D11">
-        <v>0.1309296905708729</v>
+        <v>0.53127577367946</v>
       </c>
       <c r="E11">
-        <v>0.1704324768717539</v>
+        <v>0.1465290131006264</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.01790958406657735</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -686,16 +677,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>0.4671520190982254</v>
+        <v>0.5351307850709578</v>
       </c>
       <c r="D12">
-        <v>0.4362981448828352</v>
+        <v>0.427848515348812</v>
       </c>
       <c r="E12">
-        <v>0.09654983601893945</v>
+        <v>0.03702069958023029</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -706,38 +697,18 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>0.4671520190982254</v>
+        <v>0.1606215520728562</v>
       </c>
       <c r="D13">
-        <v>0.4362981448828352</v>
+        <v>0.8104340121734962</v>
       </c>
       <c r="E13">
-        <v>0.09654983601893945</v>
+        <v>0.02894443575364755</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>0.4671520190982254</v>
-      </c>
-      <c r="D14">
-        <v>0.4362981448828352</v>
-      </c>
-      <c r="E14">
-        <v>0.09654983601893945</v>
-      </c>
-      <c r="F14">
         <v>0</v>
       </c>
     </row>
@@ -748,7 +719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -776,122 +747,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.2304031860173474</v>
+        <v>0.3202038642640018</v>
       </c>
       <c r="D2">
-        <v>0.4969275497660341</v>
+        <v>0.6089976789828835</v>
       </c>
       <c r="E2">
-        <v>0.2726692642166184</v>
+        <v>0.06801939348145869</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>0.7820095700217157</v>
-      </c>
-      <c r="D4">
-        <v>0.2179904299782842</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.233279274036484</v>
-      </c>
-      <c r="D6">
-        <v>0.7667207259635161</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>0.002779063271655956</v>
       </c>
     </row>
   </sheetData>
@@ -929,39 +800,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.7355010475254173</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2347291702405611</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02317121176486182</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.006598570469159679</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2881114296960966</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.6737953618662589</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03809320843764467</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -969,79 +840,79 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.3976487884179679</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.05502289074026563</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.004464094525455411</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2957402131124322</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.6578798859844721</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.03533270074859607</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.01104720015449962</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.2168995155835068</v>
       </c>
       <c r="D6">
-        <v>0.6964641341585097</v>
+        <v>0.7305780530002808</v>
       </c>
       <c r="E6">
-        <v>0.3035358658414903</v>
+        <v>0.04763420632265963</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.004888225093552757</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.7255237755561456</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.2370695257967525</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03740669864710201</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1049,39 +920,39 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.7749837497270196</v>
       </c>
       <c r="D8">
-        <v>0.8613945520003562</v>
+        <v>0.209809235113927</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0152070151590535</v>
       </c>
       <c r="F8">
-        <v>0.1386054479996439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.7567306197548094</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1675719832943586</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.07569739695083223</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1089,19 +960,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>0.4190776228049733</v>
+        <v>0.7815722567773472</v>
       </c>
       <c r="D10">
-        <v>0.5809223771950267</v>
+        <v>0.2048177817451928</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0136099614774599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1109,99 +980,99 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.7738342948998559</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.1835332944656455</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.03543814744568882</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.007194263188809723</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.3864325710142018</v>
+        <v>0.6759834838293406</v>
       </c>
       <c r="D12">
-        <v>0.6135674289857982</v>
+        <v>0.1561867307546227</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.08718604184052609</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.08064374357551064</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.4619138320502864</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.4818668178334236</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.05227372759553111</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.003945622520758929</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.9140697865545047</v>
+        <v>0.6577904324554797</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.2601186299610622</v>
       </c>
       <c r="E14">
-        <v>0.08593021344549534</v>
+        <v>0.07780282150174836</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.004288116081709647</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>0.9140697865545047</v>
+        <v>0.8174822877535954</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1384496847897296</v>
       </c>
       <c r="E15">
-        <v>0.08593021344549534</v>
+        <v>0.04406802745667497</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1209,39 +1080,39 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>0.9140697865545047</v>
+        <v>0.5381211257149618</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3977397650072821</v>
       </c>
       <c r="E16">
-        <v>0.08593021344549534</v>
+        <v>0.05827276357034409</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.005866345707411853</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>0.2953518416036127</v>
+        <v>0.8548534137558078</v>
       </c>
       <c r="D17">
-        <v>0.6741199099500413</v>
+        <v>0.1094267861545242</v>
       </c>
       <c r="E17">
-        <v>0.03052824844634616</v>
+        <v>0.03571980008966798</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1249,39 +1120,39 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>0.2953518416036127</v>
+        <v>0.9248139239710328</v>
       </c>
       <c r="D18">
-        <v>0.6741199099500413</v>
+        <v>0.03634751776327397</v>
       </c>
       <c r="E18">
-        <v>0.03052824844634616</v>
+        <v>0.03292999288485467</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005908565380838581</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>0.2953518416036127</v>
+        <v>0.87123704802994</v>
       </c>
       <c r="D19">
-        <v>0.6741199099500413</v>
+        <v>0.08529242819010917</v>
       </c>
       <c r="E19">
-        <v>0.03052824844634616</v>
+        <v>0.04347052377995093</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1294,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1322,19 +1193,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5993405930558749</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.3636580578984003</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03700134904572487</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1345,19 +1216,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1643234671516556</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.7269411387684906</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02725234414210714</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.08148304993774656</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1365,16 +1236,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0.4958472855812806</v>
+        <v>0.4917716660792545</v>
       </c>
       <c r="D4">
-        <v>0.2016356958596897</v>
+        <v>0.5018100436891416</v>
       </c>
       <c r="E4">
-        <v>0.3025170185590298</v>
+        <v>0.006418290231603986</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1385,16 +1256,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.4068563174242845</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.5438038650798588</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04933981749585655</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1402,16 +1273,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>0.8405128819480061</v>
+        <v>0.07562392814612101</v>
       </c>
       <c r="D6">
-        <v>0.1594871180519939</v>
+        <v>0.9243760718538789</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1422,19 +1293,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.5079094701116023</v>
+        <v>0.5497172552716943</v>
       </c>
       <c r="D7">
-        <v>0.4920905298883979</v>
+        <v>0.3892670239583827</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.06101572076992296</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1442,19 +1313,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0.5648647401941971</v>
+        <v>0.4732055462978784</v>
       </c>
       <c r="D8">
-        <v>0.4351352598058029</v>
+        <v>0.4835065653399762</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0432878883621454</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1462,79 +1333,79 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>0.5514290487937468</v>
+        <v>0.2802404301971404</v>
       </c>
       <c r="D9">
-        <v>0.4485709512062533</v>
+        <v>0.5367967648046197</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1358818889553052</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04708091604293471</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.5697812081955935</v>
+        <v>0.5337870602633682</v>
       </c>
       <c r="D10">
-        <v>0.4302187918044066</v>
+        <v>0.3095139273790007</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1393912851416745</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0173077272159565</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0.5697812081955935</v>
+        <v>0.3287750150324628</v>
       </c>
       <c r="D11">
-        <v>0.4302187918044066</v>
+        <v>0.5839649092903765</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.08115156926686631</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.006108506410294514</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.5697812081955935</v>
+        <v>0.5928738109452726</v>
       </c>
       <c r="D12">
-        <v>0.4302187918044066</v>
+        <v>0.2064855341440782</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2006406549106493</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1542,62 +1413,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>0.112582448398471</v>
+        <v>0.3666693062507451</v>
       </c>
       <c r="D13">
-        <v>0.8584936775155422</v>
+        <v>0.5168045651851666</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.06306542781760052</v>
       </c>
       <c r="F13">
-        <v>0.02892387408598686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="D14">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.02892387408598686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="D15">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.02892387408598686</v>
+        <v>0.05346070074648779</v>
       </c>
     </row>
   </sheetData>
